--- a/server/lib/OptionsAnalysis/gamma_exposure.xlsx
+++ b/server/lib/OptionsAnalysis/gamma_exposure.xlsx
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>237821.0472642101</v>
+        <v>104343.7225527058</v>
       </c>
       <c r="X2" t="n">
-        <v>237821.0472642101</v>
+        <v>104343.7225527058</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>3108754.693553163</v>
+        <v>1742136.832324637</v>
       </c>
       <c r="X3" t="n">
-        <v>3108754.693553163</v>
+        <v>1742136.832324637</v>
       </c>
     </row>
     <row r="4">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>2099612.746946575</v>
+        <v>1450335.206097316</v>
       </c>
       <c r="X4" t="n">
-        <v>1889651.472251917</v>
+        <v>1305301.685487584</v>
       </c>
     </row>
     <row r="5">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>819489.9012351804</v>
+        <v>674026.7874239302</v>
       </c>
       <c r="X5" t="n">
-        <v>-15078614.18272732</v>
+        <v>-12402092.88860032</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>2845133.888850969</v>
+        <v>2694108.78977907</v>
       </c>
       <c r="X6" t="n">
-        <v>2370944.907375808</v>
+        <v>2245090.658149225</v>
       </c>
     </row>
     <row r="7">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>25465143.4425527</v>
+        <v>28992658.81880895</v>
       </c>
       <c r="X7" t="n">
-        <v>-83159609.05458617</v>
+        <v>-94679151.45517299</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>1853537.989861349</v>
+        <v>2207683.515921635</v>
       </c>
       <c r="X8" t="n">
-        <v>-100091051.4525128</v>
+        <v>-119214909.8597683</v>
       </c>
     </row>
     <row r="9">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>7054847.691807606</v>
+        <v>8528593.833979338</v>
       </c>
       <c r="X9" t="n">
-        <v>-128499011.5293528</v>
+        <v>-155342244.8331951</v>
       </c>
     </row>
     <row r="10">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>368927037.4748511</v>
+        <v>420901605.4475242</v>
       </c>
       <c r="X10" t="n">
-        <v>134377397.7557405</v>
+        <v>153308531.7855221</v>
       </c>
     </row>
     <row r="11">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>58438464.79226001</v>
+        <v>69621980.3570689</v>
       </c>
       <c r="X11" t="n">
-        <v>-74842244.38306984</v>
+        <v>-89164992.38712329</v>
       </c>
     </row>
     <row r="12">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>24434448.76222463</v>
+        <v>7630370.880806117</v>
       </c>
       <c r="X12" t="n">
-        <v>24434448.76222463</v>
+        <v>7630370.880806117</v>
       </c>
     </row>
     <row r="13">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>34610030.87948244</v>
+        <v>8242725.590701704</v>
       </c>
       <c r="X13" t="n">
-        <v>34610030.87948244</v>
+        <v>8242725.590701704</v>
       </c>
     </row>
     <row r="14">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>764414.541743784</v>
+        <v>135787.7237880645</v>
       </c>
       <c r="X14" t="n">
-        <v>764414.541743784</v>
+        <v>135787.7237880645</v>
       </c>
     </row>
     <row r="15">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>418392.6963848059</v>
+        <v>54243.98449139037</v>
       </c>
       <c r="X15" t="n">
-        <v>418392.6963848059</v>
+        <v>54243.98449139037</v>
       </c>
     </row>
     <row r="16">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="W16" t="n">
-        <v>24168.13475828378</v>
+        <v>2238.974434356804</v>
       </c>
       <c r="X16" t="n">
-        <v>24168.13475828378</v>
+        <v>2238.974434356804</v>
       </c>
     </row>
     <row r="17">
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>95028.88689205908</v>
+        <v>4226.989028424826</v>
       </c>
       <c r="X17" t="n">
-        <v>95028.88689205908</v>
+        <v>4226.989028424826</v>
       </c>
     </row>
     <row r="18">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>358507061.8841958</v>
+        <v>380878173.5482286</v>
       </c>
       <c r="X18" t="n">
-        <v>269317500.1471519</v>
+        <v>286123115.7386693</v>
       </c>
     </row>
     <row r="19">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="W19" t="n">
-        <v>525533080.1688887</v>
+        <v>505945167.2339485</v>
       </c>
       <c r="X19" t="n">
-        <v>400125956.0698047</v>
+        <v>385212275.6826704</v>
       </c>
     </row>
     <row r="20">
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="W20" t="n">
-        <v>444509577.0745794</v>
+        <v>377631019.9532088</v>
       </c>
       <c r="X20" t="n">
-        <v>441014088.9193402</v>
+        <v>374661444.4358835</v>
       </c>
     </row>
     <row r="21">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="W21" t="n">
-        <v>708007618.8249384</v>
+        <v>517211118.378976</v>
       </c>
       <c r="X21" t="n">
-        <v>663838735.4133028</v>
+        <v>484945028.3264461</v>
       </c>
     </row>
     <row r="22">
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="W22" t="n">
-        <v>138143940.094465</v>
+        <v>84615238.03479698</v>
       </c>
       <c r="X22" t="n">
-        <v>138143940.094465</v>
+        <v>84615238.03479698</v>
       </c>
     </row>
     <row r="23">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="W23" t="n">
-        <v>139588626.0040981</v>
+        <v>69947413.38231377</v>
       </c>
       <c r="X23" t="n">
-        <v>122792929.2581905</v>
+        <v>61531143.54027455</v>
       </c>
     </row>
     <row r="24">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="W24" t="n">
-        <v>14108261.95853022</v>
+        <v>5646566.631858341</v>
       </c>
       <c r="X24" t="n">
-        <v>14108261.95853022</v>
+        <v>5646566.631858341</v>
       </c>
     </row>
     <row r="25">
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="W25" t="n">
-        <v>12298824.77172047</v>
+        <v>14813610.40045946</v>
       </c>
       <c r="X25" t="n">
-        <v>-214204531.4407983</v>
+        <v>-258003714.4746689</v>
       </c>
     </row>
     <row r="26">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="W26" t="n">
-        <v>3726686.767763362</v>
+        <v>4117043.821162091</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="W27" t="n">
-        <v>65947921.13664246</v>
+        <v>59836900.72519539</v>
       </c>
       <c r="X27" t="n">
-        <v>65947921.13664246</v>
+        <v>59836900.72519539</v>
       </c>
     </row>
     <row r="28">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="W28" t="n">
-        <v>368085.5047968749</v>
+        <v>246987.0913093613</v>
       </c>
       <c r="X28" t="n">
-        <v>-736171.0095937499</v>
+        <v>-493974.1826187227</v>
       </c>
     </row>
     <row r="29">
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="W29" t="n">
-        <v>1721148.023824978</v>
+        <v>773072.3127993371</v>
       </c>
       <c r="X29" t="n">
-        <v>1721148.023824978</v>
+        <v>773072.3127993371</v>
       </c>
     </row>
     <row r="30">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="W30" t="n">
-        <v>907723.1736950631</v>
+        <v>321835.7180600695</v>
       </c>
       <c r="X30" t="n">
-        <v>907723.1736950631</v>
+        <v>321835.7180600695</v>
       </c>
     </row>
     <row r="31">
@@ -2451,10 +2451,10 @@
         </is>
       </c>
       <c r="W31" t="n">
-        <v>28938.93568013137</v>
+        <v>571.2541741007093</v>
       </c>
       <c r="X31" t="n">
-        <v>28938.93568013137</v>
+        <v>571.2541741007093</v>
       </c>
     </row>
     <row r="32">
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="W32" t="n">
-        <v>210.0385221192597</v>
+        <v>3.344152123744168</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="W33" t="n">
-        <v>-292.3412307451347</v>
+        <v>-13.20622909747835</v>
       </c>
       <c r="X33" t="n">
-        <v>-292.3412307451347</v>
+        <v>-13.20622909747835</v>
       </c>
     </row>
     <row r="34">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="W34" t="n">
-        <v>-18099.87789314448</v>
+        <v>-2048.530216692182</v>
       </c>
       <c r="X34" t="n">
-        <v>-18099.87789314448</v>
+        <v>-2048.530216692182</v>
       </c>
     </row>
     <row r="35">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="W35" t="n">
-        <v>-209961.2746946575</v>
+        <v>-145033.5206097315</v>
       </c>
       <c r="X35" t="n">
-        <v>1889651.472251917</v>
+        <v>1305301.685487584</v>
       </c>
     </row>
     <row r="36">
@@ -2751,10 +2751,10 @@
         </is>
       </c>
       <c r="W36" t="n">
-        <v>-15898104.0839625</v>
+        <v>-13076119.67602425</v>
       </c>
       <c r="X36" t="n">
-        <v>-15078614.18272732</v>
+        <v>-12402092.88860032</v>
       </c>
     </row>
     <row r="37">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="W37" t="n">
-        <v>-474188.9814751615</v>
+        <v>-449018.131629845</v>
       </c>
       <c r="X37" t="n">
-        <v>2370944.907375808</v>
+        <v>2245090.658149225</v>
       </c>
     </row>
     <row r="38">
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="W38" t="n">
-        <v>-12737805.57398342</v>
+        <v>-13438495.71843941</v>
       </c>
       <c r="X38" t="n">
-        <v>-12737805.57398342</v>
+        <v>-13438495.71843941</v>
       </c>
     </row>
     <row r="39">
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="W39" t="n">
-        <v>-108624752.4971389</v>
+        <v>-123671810.2739819</v>
       </c>
       <c r="X39" t="n">
-        <v>-83159609.05458617</v>
+        <v>-94679151.45517299</v>
       </c>
     </row>
     <row r="40">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="W40" t="n">
-        <v>-101944589.4423742</v>
+        <v>-121422593.3756899</v>
       </c>
       <c r="X40" t="n">
-        <v>-100091051.4525128</v>
+        <v>-119214909.8597683</v>
       </c>
     </row>
     <row r="41">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="W41" t="n">
-        <v>-135553859.2211604</v>
+        <v>-163870838.6671744</v>
       </c>
       <c r="X41" t="n">
-        <v>-128499011.5293528</v>
+        <v>-155342244.8331951</v>
       </c>
     </row>
     <row r="42">
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="W42" t="n">
-        <v>-234549639.7191107</v>
+        <v>-267593073.6620022</v>
       </c>
       <c r="X42" t="n">
-        <v>134377397.7557405</v>
+        <v>153308531.7855221</v>
       </c>
     </row>
     <row r="43">
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="W43" t="n">
-        <v>-133280709.1753299</v>
+        <v>-158786972.7441922</v>
       </c>
       <c r="X43" t="n">
-        <v>-74842244.38306984</v>
+        <v>-89164992.38712329</v>
       </c>
     </row>
     <row r="44">
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="W44" t="n">
-        <v>-195.6796165433604</v>
+        <v>-1.605504843506548</v>
       </c>
       <c r="X44" t="n">
-        <v>-195.6796165433604</v>
+        <v>-1.605504843506548</v>
       </c>
     </row>
     <row r="45">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="W45" t="n">
-        <v>-89189561.73704383</v>
+        <v>-94755057.80955932</v>
       </c>
       <c r="X45" t="n">
-        <v>269317500.1471519</v>
+        <v>286123115.7386693</v>
       </c>
     </row>
     <row r="46">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="W46" t="n">
-        <v>-125407124.099084</v>
+        <v>-120732891.5512781</v>
       </c>
       <c r="X46" t="n">
-        <v>400125956.0698047</v>
+        <v>385212275.6826704</v>
       </c>
     </row>
     <row r="47">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="W47" t="n">
-        <v>-3495488.155239157</v>
+        <v>-2969575.517325364</v>
       </c>
       <c r="X47" t="n">
-        <v>441014088.9193402</v>
+        <v>374661444.4358835</v>
       </c>
     </row>
     <row r="48">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="W48" t="n">
-        <v>-44168883.41163568</v>
+        <v>-32266090.05252985</v>
       </c>
       <c r="X48" t="n">
-        <v>663838735.4133028</v>
+        <v>484945028.3264461</v>
       </c>
     </row>
     <row r="49">
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="W49" t="n">
-        <v>-16795696.74590763</v>
+        <v>-8416269.842039222</v>
       </c>
       <c r="X49" t="n">
-        <v>122792929.2581905</v>
+        <v>61531143.54027455</v>
       </c>
     </row>
     <row r="50">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="W51" t="n">
-        <v>-433134529.0939762</v>
+        <v>-506320627.3384811</v>
       </c>
       <c r="X51" t="n">
-        <v>-433134529.0939762</v>
+        <v>-506320627.3384811</v>
       </c>
     </row>
     <row r="52">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="W52" t="n">
-        <v>-2923967.437777421</v>
+        <v>-3521727.96328276</v>
       </c>
       <c r="X52" t="n">
-        <v>-2923967.437777421</v>
+        <v>-3521727.96328276</v>
       </c>
     </row>
     <row r="53">
@@ -3869,10 +3869,10 @@
         </is>
       </c>
       <c r="W53" t="n">
-        <v>-226503356.2125188</v>
+        <v>-272817324.8751284</v>
       </c>
       <c r="X53" t="n">
-        <v>-214204531.4407983</v>
+        <v>-258003714.4746689</v>
       </c>
     </row>
     <row r="54">
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="W54" t="n">
-        <v>-3726686.767763362</v>
+        <v>-4117043.821162091</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="W55" t="n">
-        <v>-19798379.72188564</v>
+        <v>-20090263.41518628</v>
       </c>
       <c r="X55" t="n">
-        <v>-19798379.72188564</v>
+        <v>-20090263.41518628</v>
       </c>
     </row>
     <row r="56">
@@ -4049,10 +4049,10 @@
         </is>
       </c>
       <c r="W56" t="n">
-        <v>-1104256.514390625</v>
+        <v>-740961.2739280839</v>
       </c>
       <c r="X56" t="n">
-        <v>-736171.0095937499</v>
+        <v>-493974.1826187227</v>
       </c>
     </row>
     <row r="57">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="W57" t="n">
-        <v>-210.0385221192597</v>
+        <v>-3.344152123744168</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
